--- a/llm_app_excel/clients.xlsx
+++ b/llm_app_excel/clients.xlsx
@@ -4,17 +4,48 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="sheet2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Libelle</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>Durand</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>jean.durand@email.com</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>claire.martin@email.com</t>
+  </si>
   <si>
     <t>client</t>
   </si>
@@ -37,28 +68,16 @@
     <t>Dupont</t>
   </si>
   <si>
-    <t>Jean</t>
-  </si>
-  <si>
     <t>1 rue de Paris, Lyon</t>
   </si>
   <si>
     <t>clementallan2@gmail.com</t>
   </si>
   <si>
-    <t>Durand</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
     <t>2 avenue des Lilas, Bordeaux</t>
   </si>
   <si>
     <t>claire.durand@example.com</t>
-  </si>
-  <si>
-    <t>Martin</t>
   </si>
   <si>
     <t>Luc</t>
@@ -85,13 +104,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -104,12 +123,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -138,25 +172,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,96 +499,160 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="31.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>12456187265241</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>19636187265333</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15584162584265</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>12456187265241</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>19636187265333</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15584162584265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
